--- a/biology/Médecine/Artère_circonflexe_postérieure_de_l'humérus/Artère_circonflexe_postérieure_de_l'humérus.xlsx
+++ b/biology/Médecine/Artère_circonflexe_postérieure_de_l'humérus/Artère_circonflexe_postérieure_de_l'humérus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_circonflexe_post%C3%A9rieure_de_l%27hum%C3%A9rus</t>
+          <t>Artère_circonflexe_postérieure_de_l'humérus</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'artère circonflexe postérieure de l'humérus (ou artère circonflexe postérieure du bras) est une des deux artères circonflexes du bras.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_circonflexe_post%C3%A9rieure_de_l%27hum%C3%A9rus</t>
+          <t>Artère_circonflexe_postérieure_de_l'humérus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'artère circonflexe postérieure de l'humérus naît de la troisième partie de l'artère axillaire au bord inférieur du muscle subscapulaire. Elle passe en arrière avec le nerf axillaire à travers le creux axillaire.
 Elle contourne le col chirurgical de l'humérus et gagne la face profonde du muscle deltoïde.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_circonflexe_post%C3%A9rieure_de_l%27hum%C3%A9rus</t>
+          <t>Artère_circonflexe_postérieure_de_l'humérus</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Zone de vascularisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'artère circonflexe postérieure de l'humérus vascularise[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'artère circonflexe postérieure de l'humérus vascularise :
 l'articulation gléno-humérale,
 le muscle grand rond,
 le muscle petit rond,
